--- a/8a58a0ea3eb13bdbea53dfe957e0e06a7c315f2c/Data/demo_stats.xlsx
+++ b/8a58a0ea3eb13bdbea53dfe957e0e06a7c315f2c/Data/demo_stats.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SynologyDrive\Data Vianney\Documents\Class\R ecology\Class 2017-2018\Class 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\R_Projects\OCEAN5098\8a58a0ea3eb13bdbea53dfe957e0e06a7c315f2c\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9583E49F-1399-4282-90BF-673AC06ECBDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A6AAF63-2EC7-481A-A2FA-DD7C612F215B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats explained-corr" sheetId="1" r:id="rId1"/>
     <sheet name="Stats explained - t test" sheetId="2" r:id="rId2"/>
-    <sheet name="Anova" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Anova_clean" sheetId="4" r:id="rId3"/>
+    <sheet name="Anova" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="88">
   <si>
     <t>height</t>
   </si>
@@ -275,12 +275,63 @@
   <si>
     <t>MS(W)</t>
   </si>
+  <si>
+    <t>SST</t>
+  </si>
+  <si>
+    <t>SSW</t>
+  </si>
+  <si>
+    <t>SSB</t>
+  </si>
+  <si>
+    <t>Mean - Group 1</t>
+  </si>
+  <si>
+    <t>Overall Mean</t>
+  </si>
+  <si>
+    <t>MSB</t>
+  </si>
+  <si>
+    <t>Between Group Variance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within Group Variance </t>
+  </si>
+  <si>
+    <t>with df = k - 1</t>
+  </si>
+  <si>
+    <t>with df = n - k</t>
+  </si>
+  <si>
+    <t>MSW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Variance </t>
+  </si>
+  <si>
+    <t>with df = n - 1</t>
+  </si>
+  <si>
+    <t>(62.5 + 10.4)</t>
+  </si>
+  <si>
+    <t>Column 1</t>
+  </si>
+  <si>
+    <t>Column 2</t>
+  </si>
+  <si>
+    <t>CHECK (Data &gt; Data Analysis)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,8 +496,39 @@
       <family val="1"/>
       <charset val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -656,8 +738,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -887,6 +981,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -932,7 +1097,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -989,10 +1154,59 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1241,6 +1455,72 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>761374</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>117928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="https://qph.cf2.quoracdn.net/main-qimg-8a93858707b4556b26779e0b95109da0-lq">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A520820D-8AB6-4E10-B64F-ADDEB502AFBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2041071" y="54428"/>
+          <a:ext cx="2630089" cy="1533071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1898,8 +2178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1942,23 +2222,23 @@
       <c r="C2">
         <v>38</v>
       </c>
-      <c r="D2" s="43">
-        <f t="shared" ref="D2:D11" si="0">B2-$B$12</f>
+      <c r="D2" s="42">
+        <f t="shared" ref="D2" si="0">B2-$B$12</f>
         <v>-3.3000000000000114</v>
       </c>
-      <c r="E2" s="43">
-        <f t="shared" ref="E2:E11" si="1">C2-$C$12</f>
+      <c r="E2" s="42">
+        <f t="shared" ref="E2" si="1">C2-$C$12</f>
         <v>-2.1000000000000014</v>
       </c>
-      <c r="F2" s="43">
+      <c r="F2" s="42">
         <f>D2*E2</f>
         <v>6.9300000000000281</v>
       </c>
-      <c r="G2" s="43">
+      <c r="G2" s="42">
         <f>D2^2</f>
         <v>10.890000000000075</v>
       </c>
-      <c r="H2" s="43">
+      <c r="H2" s="42">
         <f>E2^2</f>
         <v>4.4100000000000064</v>
       </c>
@@ -1970,11 +2250,11 @@
       <c r="C3">
         <v>39</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4">
@@ -1983,11 +2263,11 @@
       <c r="C4">
         <v>38</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -1996,11 +2276,11 @@
       <c r="C5">
         <v>37</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -2009,11 +2289,11 @@
       <c r="C6">
         <v>36</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7">
@@ -2022,11 +2302,11 @@
       <c r="C7">
         <v>42</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8">
@@ -2035,11 +2315,11 @@
       <c r="C8">
         <v>44</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9">
@@ -2048,11 +2328,11 @@
       <c r="C9">
         <v>43</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -2061,11 +2341,11 @@
       <c r="C10">
         <v>43</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -2074,11 +2354,11 @@
       <c r="C11">
         <v>41</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2316,11 +2596,654 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="44"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="44"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>38</v>
+      </c>
+      <c r="B4" s="8">
+        <v>42</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="63"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>39</v>
+      </c>
+      <c r="B5" s="8">
+        <v>44</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="66"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>38</v>
+      </c>
+      <c r="B6" s="8">
+        <v>43</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="66"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>37</v>
+      </c>
+      <c r="B7" s="8">
+        <v>43</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="66"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>36</v>
+      </c>
+      <c r="B8" s="8">
+        <v>41</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="66"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H9" s="64"/>
+      <c r="I9" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="66"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="55">
+        <v>5</v>
+      </c>
+      <c r="K10" s="55">
+        <v>188</v>
+      </c>
+      <c r="L10" s="55">
+        <v>37.6</v>
+      </c>
+      <c r="M10" s="55">
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="66"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="48">
+        <f>AVERAGE(A4:A8)</f>
+        <v>37.6</v>
+      </c>
+      <c r="B11" s="49">
+        <f>AVERAGE(B4:B8)</f>
+        <v>42.6</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49">
+        <f>AVERAGE(A4:B8)</f>
+        <v>40.1</v>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="56">
+        <v>5</v>
+      </c>
+      <c r="K11" s="56">
+        <v>213</v>
+      </c>
+      <c r="L11" s="56">
+        <v>42.6</v>
+      </c>
+      <c r="M11" s="56">
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="66"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H12" s="64"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="66"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H13" s="64"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="66"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="66"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="64"/>
+      <c r="I15" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" s="66"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="48">
+        <f>(A11-E11)^2*5</f>
+        <v>31.25</v>
+      </c>
+      <c r="B16" s="49">
+        <f>(B11-E11)^2*5</f>
+        <v>31.25</v>
+      </c>
+      <c r="C16" s="49"/>
+      <c r="D16" s="53">
+        <f>SUM(A16:B16)</f>
+        <v>62.5</v>
+      </c>
+      <c r="E16" s="49">
+        <v>1</v>
+      </c>
+      <c r="F16" s="40">
+        <f>D16/1</f>
+        <v>62.5</v>
+      </c>
+      <c r="H16" s="64"/>
+      <c r="I16" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="55">
+        <v>62.500000000000007</v>
+      </c>
+      <c r="K16" s="55">
+        <v>1</v>
+      </c>
+      <c r="L16" s="55">
+        <v>62.500000000000007</v>
+      </c>
+      <c r="M16" s="55">
+        <v>48.076923076923087</v>
+      </c>
+      <c r="N16" s="55">
+        <v>1.2036668127409876E-4</v>
+      </c>
+      <c r="O16" s="55">
+        <v>5.3176550715787174</v>
+      </c>
+      <c r="P16" s="66"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H17" s="64"/>
+      <c r="I17" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="55">
+        <v>10.399999999999999</v>
+      </c>
+      <c r="K17" s="55">
+        <v>8</v>
+      </c>
+      <c r="L17" s="55">
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="66"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="66"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="37"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="56">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="K19" s="56">
+        <v>9</v>
+      </c>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="66"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="36">
+        <f>(A4-$A$11)^2</f>
+        <v>0.15999999999999887</v>
+      </c>
+      <c r="B20" s="23">
+        <f>(B4-$B$11)^2</f>
+        <v>0.36000000000000171</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="37"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="69"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="36">
+        <f>(A5-$A$11)^2</f>
+        <v>1.959999999999996</v>
+      </c>
+      <c r="B21" s="23">
+        <f>(B5-$B$11)^2</f>
+        <v>1.959999999999996</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="37"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="36">
+        <f>(A6-$A$11)^2</f>
+        <v>0.15999999999999887</v>
+      </c>
+      <c r="B22" s="23">
+        <f>(B6-$B$11)^2</f>
+        <v>0.15999999999999887</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="37"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="36">
+        <f>(A7-$A$11)^2</f>
+        <v>0.36000000000000171</v>
+      </c>
+      <c r="B23" s="23">
+        <f>(B7-$B$11)^2</f>
+        <v>0.15999999999999887</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="38">
+        <f>(A8-$A$11)^2</f>
+        <v>2.5600000000000045</v>
+      </c>
+      <c r="B24" s="39">
+        <f>(B8-$B$11)^2</f>
+        <v>2.5600000000000045</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="53">
+        <f>SUM(A20:B24)</f>
+        <v>10.4</v>
+      </c>
+      <c r="E24" s="49">
+        <f>10-2</f>
+        <v>8</v>
+      </c>
+      <c r="F24" s="40">
+        <f>D24/E24</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="37"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="36">
+        <f t="shared" ref="A28:B32" si="0">(A4-$E$11)^2</f>
+        <v>4.4100000000000064</v>
+      </c>
+      <c r="B28" s="23">
+        <f t="shared" si="0"/>
+        <v>3.6099999999999945</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="37"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="36">
+        <f t="shared" si="0"/>
+        <v>1.2100000000000031</v>
+      </c>
+      <c r="B29" s="23">
+        <f t="shared" si="0"/>
+        <v>15.209999999999988</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="37"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="36">
+        <f t="shared" si="0"/>
+        <v>4.4100000000000064</v>
+      </c>
+      <c r="B30" s="23">
+        <f t="shared" si="0"/>
+        <v>8.4099999999999913</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="37"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="36">
+        <f t="shared" si="0"/>
+        <v>9.6100000000000083</v>
+      </c>
+      <c r="B31" s="23">
+        <f t="shared" si="0"/>
+        <v>8.4099999999999913</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="37"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="38">
+        <f t="shared" si="0"/>
+        <v>16.810000000000013</v>
+      </c>
+      <c r="B32" s="39">
+        <f t="shared" si="0"/>
+        <v>0.80999999999999739</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="53">
+        <f>SUM(A28:B32)</f>
+        <v>72.900000000000006</v>
+      </c>
+      <c r="E32" s="49">
+        <v>9</v>
+      </c>
+      <c r="F32" s="40"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F35" s="70" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F36" s="71">
+        <f>F16/F24</f>
+        <v>48.076923076923073</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,16 +3256,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="42"/>
+      <c r="D1" s="72"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="42"/>
+      <c r="D2" s="72"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C3" s="9" t="s">
@@ -2623,11 +3546,11 @@
         <v>47</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" ref="C20:D24" si="0">(C4-C$11)^2</f>
+        <f>(C4-C$11)^2</f>
         <v>0.15999999999999887</v>
       </c>
       <c r="D20" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C20:D24" si="0">(D4-D$11)^2</f>
         <v>0.36000000000000171</v>
       </c>
       <c r="E20" s="37"/>
@@ -2720,6 +3643,10 @@
         <v>1.2999999999999998</v>
       </c>
       <c r="E26" s="37"/>
+      <c r="F26">
+        <f>SUM(C20:C24)</f>
+        <v>5.1999999999999993</v>
+      </c>
       <c r="G26" s="24"/>
       <c r="J26" t="s">
         <v>63</v>
@@ -2752,11 +3679,11 @@
         <v>62</v>
       </c>
       <c r="I29" s="8">
-        <f t="shared" ref="I29:J33" si="1">(C4-$F$11)^2</f>
+        <f>(C4-$F$11)^2</f>
         <v>4.4100000000000064</v>
       </c>
       <c r="J29" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I29:J33" si="1">(D4-$F$11)^2</f>
         <v>3.6099999999999945</v>
       </c>
     </row>
@@ -2941,18 +3868,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>